--- a/Tools/CANMaster/CAN_Protocol_Raw.xlsx
+++ b/Tools/CANMaster/CAN_Protocol_Raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LKAS\Tools\CANMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50F3211-E08D-45E1-BFB5-E0F3E5EAFF80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38AB45F-BD2E-468D-8476-5FEDEA3F7D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="CAN_Protocol">CAN_Protocol!$A$1:$P$46</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -785,7 +785,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>1530</v>
+        <v>1786</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1530</v>
+        <v>1786</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>1530</v>
+        <v>1786</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>1530</v>
+        <v>1786</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1530</v>
+        <v>1786</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>1530</v>
+        <v>1786</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>1532</v>
+        <v>1788</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1532</v>
+        <v>1788</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>1532</v>
+        <v>1788</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>1532</v>
+        <v>1788</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>1533</v>
+        <v>1789</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>1533</v>
+        <v>1789</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>1533</v>
+        <v>1789</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1533</v>
+        <v>1789</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>1533</v>
+        <v>1789</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>1533</v>
+        <v>1789</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>1535</v>
+        <v>1791</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>1535</v>
+        <v>1791</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>1535</v>
+        <v>1791</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>1535</v>
+        <v>1791</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D46">
         <v>0</v>

--- a/Tools/CANMaster/CAN_Protocol_Raw.xlsx
+++ b/Tools/CANMaster/CAN_Protocol_Raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LKAS\Tools\CANMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38AB45F-BD2E-468D-8476-5FEDEA3F7D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B4EE52-F212-4EAC-8BB3-1049BBCD89A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="C2">
         <v>1359</v>
@@ -896,7 +896,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="C3">
         <v>1359</v>
@@ -943,7 +943,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>1172</v>
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>1172</v>
@@ -1337,7 +1337,7 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>908</v>
@@ -1387,7 +1387,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>812</v>
@@ -1484,7 +1484,7 @@
         <v>52</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>1105</v>
@@ -1531,7 +1531,7 @@
         <v>54</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>1786</v>
@@ -1578,7 +1578,7 @@
         <v>57</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>1786</v>
@@ -1625,7 +1625,7 @@
         <v>59</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>1786</v>
@@ -1675,7 +1675,7 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>1786</v>
@@ -1722,7 +1722,7 @@
         <v>64</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1786</v>
@@ -1772,7 +1772,7 @@
         <v>67</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>1786</v>
@@ -1822,7 +1822,7 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>1788</v>
@@ -1869,7 +1869,7 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>1788</v>
@@ -1919,7 +1919,7 @@
         <v>73</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>1788</v>
@@ -1969,7 +1969,7 @@
         <v>76</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>1788</v>
@@ -2019,7 +2019,7 @@
         <v>78</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>1789</v>
@@ -2066,7 +2066,7 @@
         <v>80</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>1789</v>
@@ -2113,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>1789</v>
@@ -2163,7 +2163,7 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>1789</v>
@@ -2210,7 +2210,7 @@
         <v>86</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>1789</v>
@@ -2260,7 +2260,7 @@
         <v>88</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>1789</v>
@@ -2310,7 +2310,7 @@
         <v>90</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>1791</v>
@@ -2357,7 +2357,7 @@
         <v>91</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>1791</v>
@@ -2407,7 +2407,7 @@
         <v>93</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>1791</v>
@@ -2457,7 +2457,7 @@
         <v>95</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>1791</v>
@@ -2507,7 +2507,7 @@
         <v>97</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>1344</v>
@@ -2554,7 +2554,7 @@
         <v>100</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>1344</v>
@@ -2601,7 +2601,7 @@
         <v>102</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>1344</v>
@@ -2648,7 +2648,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>1344</v>
@@ -2695,7 +2695,7 @@
         <v>106</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>1344</v>
@@ -2742,7 +2742,7 @@
         <v>108</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>1344</v>
@@ -2789,7 +2789,7 @@
         <v>109</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>1344</v>
@@ -2836,7 +2836,7 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>1009</v>
@@ -2886,7 +2886,7 @@
         <v>114</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>1009</v>
@@ -2933,7 +2933,7 @@
         <v>115</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>1009</v>
@@ -2980,7 +2980,7 @@
         <v>117</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>1009</v>
